--- a/notebook/MLA/Model performances.xlsx
+++ b/notebook/MLA/Model performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuong\Documents\GitHub\House-Pricing\notebook\MLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9129DE-4CDB-4519-8374-E27DD15CE48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48288C9D-7081-4605-A42A-7C624FF01C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{15A492A8-2B02-4A58-B7EF-8C9E14224ED3}"/>
   </bookViews>
@@ -242,17 +242,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -282,22 +281,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>513452</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>75619</xdr:rowOff>
+      <xdr:colOff>456412</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>37546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6841D130-70DC-79AB-3686-18E28D6E9490}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90E8926-D267-ABEA-F6EC-57CA5AFAD685}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -313,8 +312,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1524000"/>
-          <a:ext cx="7180952" cy="4647619"/>
+          <a:off x="819150" y="1514475"/>
+          <a:ext cx="6304762" cy="4428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -625,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3414A135-BC07-42E1-9EFE-C8492CB783B3}">
   <dimension ref="A2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,19 +646,19 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -670,36 +669,36 @@
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
-        <v>22811.200000000001</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1922061103.3</v>
-      </c>
-      <c r="E3" s="6">
-        <v>43841.31</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.7</v>
+      <c r="C3">
+        <v>21241.97</v>
+      </c>
+      <c r="D3">
+        <v>1715333569.9200001</v>
+      </c>
+      <c r="E3">
+        <v>41416.58</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>24223.33</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1454333984.5799999</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>38135.730000000003</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0.77</v>
       </c>
     </row>
@@ -710,16 +709,16 @@
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>22811.200000000001</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>1922061103.3199999</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>43841.31</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.7</v>
       </c>
     </row>
@@ -727,19 +726,19 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>25590.81</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>1812778129.9100001</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>42576.73</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>0.72</v>
       </c>
     </row>
